--- a/forecast_summary_B0CTTXH95Q.xlsx
+++ b/forecast_summary_B0CTTXH95Q.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>74.58555290316893</v>
       </c>
       <c r="D2" t="n">
-        <v>86.26277437268287</v>
+        <v>86.94237915927327</v>
       </c>
       <c r="E2" t="n">
         <v>46</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>213.9134157006268</v>
       </c>
       <c r="D3" t="n">
-        <v>227.2728668940464</v>
+        <v>227.032073787474</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>326.7189752047827</v>
       </c>
       <c r="D4" t="n">
-        <v>338.8870490300524</v>
+        <v>339.9585142402705</v>
       </c>
       <c r="E4" t="n">
         <v>51</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>277.3953678660828</v>
       </c>
       <c r="D5" t="n">
-        <v>290.4536776184511</v>
+        <v>289.9137742327234</v>
       </c>
       <c r="E5" t="n">
         <v>47</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>41.58901073838612</v>
       </c>
       <c r="D6" t="n">
-        <v>55.01841116684279</v>
+        <v>54.42625359971614</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-239.5481352071405</v>
       </c>
       <c r="D7" t="n">
-        <v>-226.1302510767698</v>
+        <v>-226.6277560862416</v>
       </c>
       <c r="E7" t="n">
         <v>32</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-375.02432948585</v>
       </c>
       <c r="D8" t="n">
-        <v>-362.7540865655349</v>
+        <v>-362.4508376920034</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-299.7474306753608</v>
       </c>
       <c r="D9" t="n">
-        <v>-286.6768361445885</v>
+        <v>-286.6427224681746</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-123.3032131991326</v>
       </c>
       <c r="D10" t="n">
-        <v>-110.8583767283755</v>
+        <v>-110.9511056517396</v>
       </c>
       <c r="E10" t="n">
         <v>34</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-2.993625903836002</v>
       </c>
       <c r="D11" t="n">
-        <v>9.765989919622193</v>
+        <v>9.840193934904471</v>
       </c>
       <c r="E11" t="n">
         <v>34</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>10.71654472417312</v>
       </c>
       <c r="D12" t="n">
-        <v>23.95005437909386</v>
+        <v>24.16409019606005</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-12.71445498509597</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.592041381804797</v>
+        <v>-0.08411298277733992</v>
       </c>
       <c r="E13" t="n">
         <v>37</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-3.350815746095301</v>
       </c>
       <c r="D14" t="n">
-        <v>9.724042442088431</v>
+        <v>9.810127988066544</v>
       </c>
       <c r="E14" t="n">
         <v>36</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>21.15547159074761</v>
       </c>
       <c r="D15" t="n">
-        <v>34.30824665759035</v>
+        <v>34.11042248748972</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>4.147229614702028</v>
       </c>
       <c r="D16" t="n">
-        <v>15.98642795656066</v>
+        <v>16.36146994219632</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-49.23616529790887</v>
       </c>
       <c r="D17" t="n">
-        <v>-36.51695341653578</v>
+        <v>-35.27446946962606</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-72.97698316875184</v>
       </c>
       <c r="D18" t="n">
-        <v>-59.91627992390021</v>
+        <v>-60.42590178066368</v>
       </c>
       <c r="E18" t="n">
         <v>35</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-51.54717225292048</v>
       </c>
       <c r="D19" t="n">
-        <v>-39.71336933355655</v>
+        <v>-38.33819522133163</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-82.01641157112942</v>
       </c>
       <c r="D20" t="n">
-        <v>-68.55416768805068</v>
+        <v>-69.46538847605375</v>
       </c>
       <c r="E20" t="n">
         <v>39</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-269.7031725856293</v>
       </c>
       <c r="D21" t="n">
-        <v>-259.1673977166253</v>
+        <v>-257.0920446316839</v>
       </c>
       <c r="E21" t="n">
         <v>36</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650M D3HP AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
